--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aboudirai/BBP/monasmakerie/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akr/BBP/monasmakerie/site/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C39E79C-7B0B-F94D-B71A-32141328CB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2042CD42-8D6B-DB4B-B1CF-206A6E574F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>WAX</t>
   </si>
@@ -72,9 +72,6 @@
     <t>85 each</t>
   </si>
   <si>
-    <t>80 each</t>
-  </si>
-  <si>
     <t>65 each</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>European Facial</t>
   </si>
   <si>
-    <t>125 each</t>
-  </si>
-  <si>
     <t xml:space="preserve">Makeup </t>
   </si>
   <si>
@@ -292,6 +286,15 @@
   </si>
   <si>
     <t>An anti-aging and cosmetic treatment formulated to restore hydration and firmness around the delicate eye area. Infusing powerful ingredients such as caviar to replenish; honey to lock in moisture, Persian silk tree to enhance, tighten and smooth out fine lines.</t>
+  </si>
+  <si>
+    <t>95 each</t>
+  </si>
+  <si>
+    <t>150 each</t>
+  </si>
+  <si>
+    <t>Makeup Class</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -620,13 +623,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>15</v>
@@ -638,7 +641,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -650,7 +653,7 @@
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>15</v>
@@ -662,7 +665,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>35</v>
@@ -674,7 +677,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -686,7 +689,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>15</v>
@@ -698,7 +701,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -711,7 +714,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -724,7 +727,7 @@
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
@@ -736,7 +739,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -748,7 +751,7 @@
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -760,7 +763,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>15</v>
@@ -772,7 +775,7 @@
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45</v>
@@ -784,7 +787,7 @@
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
@@ -796,7 +799,7 @@
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2">
         <v>25</v>
@@ -808,7 +811,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -820,7 +823,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2">
         <v>80</v>
@@ -832,7 +835,7 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2">
         <v>45</v>
@@ -844,7 +847,7 @@
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
         <v>40</v>
@@ -856,7 +859,7 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2">
         <v>15</v>
@@ -868,7 +871,7 @@
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2">
         <v>30</v>
@@ -880,7 +883,7 @@
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2">
         <v>45</v>
@@ -892,7 +895,7 @@
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2">
         <v>65</v>
@@ -904,7 +907,7 @@
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2">
         <v>50</v>
@@ -916,7 +919,7 @@
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2">
         <v>20</v>
@@ -928,7 +931,7 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
@@ -940,7 +943,7 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2">
         <v>15</v>
@@ -952,7 +955,7 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2">
         <v>30</v>
@@ -985,7 +988,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1004,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1012,25 +1015,25 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="D2" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>55</v>
@@ -1038,10 +1041,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>55</v>
@@ -1049,25 +1052,25 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E5">
         <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1078,12 +1081,12 @@
         <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1094,12 +1097,12 @@
         <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1110,12 +1113,12 @@
         <v>30</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1126,12 +1129,12 @@
         <v>70</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1142,28 +1145,28 @@
         <v>60</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>45</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1174,12 +1177,12 @@
         <v>45</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2"/>
       <c r="D13" s="2">
@@ -1189,15 +1192,15 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>45</v>
@@ -1205,7 +1208,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
         <v>50</v>
@@ -1227,7 +1230,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1246,52 +1249,52 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E3">
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E4">
         <v>55</v>
@@ -1300,49 +1303,49 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E7">
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
@@ -1359,10 +1362,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1381,18 +1384,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -1400,7 +1403,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>25</v>
@@ -1422,21 +1425,21 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -1447,10 +1450,21 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akr/BBP/monasmakerie/site/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2042CD42-8D6B-DB4B-B1CF-206A6E574F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BF8DA2-127C-1747-925D-438DEB6228DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,8 +603,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -692,7 +692,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -826,7 +826,7 @@
         <v>38</v>
       </c>
       <c r="D18" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -838,7 +838,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="2">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -850,7 +850,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>15</v>
@@ -874,7 +874,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -886,7 +886,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="2">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -898,7 +898,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="2">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -988,7 +988,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1155,7 +1155,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>45</v>
@@ -1171,7 +1171,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E12">
         <v>45</v>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1299,6 +1299,9 @@
       <c r="E4">
         <v>55</v>
       </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
@@ -1311,9 +1314,6 @@
       </c>
       <c r="E5">
         <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
@@ -1364,7 +1364,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akr/BBP/monasmakerie/site/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BF8DA2-127C-1747-925D-438DEB6228DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6424BE8-EC65-9D40-86F8-E72B0377888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>WAX</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Lower Back</t>
-  </si>
-  <si>
-    <t>Buttocks</t>
   </si>
   <si>
     <t>Stomach</t>
@@ -603,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -623,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
@@ -859,7 +856,7 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2">
         <v>15</v>
@@ -931,7 +928,7 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
@@ -943,7 +940,7 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2">
         <v>15</v>
@@ -954,9 +951,6 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D29" s="2">
         <v>30</v>
       </c>
@@ -1007,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1025,15 +1019,15 @@
         <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>55</v>
@@ -1041,7 +1035,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1065,12 +1059,12 @@
         <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1081,12 +1075,12 @@
         <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1097,12 +1091,12 @@
         <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1113,12 +1107,12 @@
         <v>30</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1129,12 +1123,12 @@
         <v>70</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1145,12 +1139,12 @@
         <v>60</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1161,12 +1155,12 @@
         <v>45</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1177,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
@@ -1192,12 +1186,12 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -1249,16 +1243,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2">
@@ -1268,13 +1262,13 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2">
@@ -1284,13 +1278,13 @@
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
@@ -1300,17 +1294,17 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1319,7 +1313,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -1329,13 +1323,13 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
@@ -1345,7 +1339,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
@@ -1384,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -1436,7 +1430,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2">
         <v>300</v>
@@ -1458,7 +1452,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2">
         <v>200</v>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akr/BBP/monasmakerie/site/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raikh\Desktop\Aboudi\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6424BE8-EC65-9D40-86F8-E72B0377888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47C292-4AAA-494E-BADE-955D3EAFA602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>WAX</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Bridesmaids</t>
   </si>
   <si>
-    <t>facial and peel</t>
-  </si>
-  <si>
     <t>85 each</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>Bio-Élita Aqua Detox Charcoal Facial</t>
   </si>
   <si>
-    <t>A real detox and hydrating booster facial. A mask woven from cellulose and charcoal, deeply cleanses,purifies and detoxifies the skin by removing impurities, toxins and excess sebum while preserving the skins hydrolipidic film. Best for dehydrated, demanding and sensitive skins.</t>
-  </si>
-  <si>
     <t>Caviar Eye Treatment</t>
   </si>
   <si>
@@ -292,6 +286,15 @@
   </si>
   <si>
     <t>Makeup Class</t>
+  </si>
+  <si>
+    <t>A european facial with the addition of Sothys Lactic Acid Peel that resurfaces superficial lines and stimulates cell rejuvenation and brightening. Followed by a manual extraction and Mona's unique signature massage. Topping the treatment with a soothing ampule and Sothys W+ Brightening mask to complete this non-irritating acid treatment.</t>
+  </si>
+  <si>
+    <t>A real detox and hydrating booster facial. A mask woven from cellulose and charcoal, deeply cleanses,purifies and detoxifies the skin by removing impurities, toxins and excess sebum while preserving the skin's hydrolipidic film. Best for dehydrated, demanding and sensitive skin.</t>
+  </si>
+  <si>
+    <t>*NEW* Mona's Brightening Facial</t>
   </si>
 </sst>
 </file>
@@ -368,16 +371,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,11 +603,11 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -620,13 +623,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>15</v>
@@ -638,7 +641,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -650,7 +653,7 @@
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>15</v>
@@ -662,7 +665,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>35</v>
@@ -674,7 +677,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -686,7 +689,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -698,7 +701,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -711,7 +714,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -724,7 +727,7 @@
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
@@ -736,7 +739,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -748,7 +751,7 @@
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -760,7 +763,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>15</v>
@@ -772,7 +775,7 @@
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45</v>
@@ -784,7 +787,7 @@
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
@@ -796,7 +799,7 @@
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>25</v>
@@ -808,7 +811,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -820,7 +823,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2">
         <v>95</v>
@@ -832,7 +835,7 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2">
         <v>65</v>
@@ -844,7 +847,7 @@
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2">
         <v>45</v>
@@ -856,7 +859,7 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2">
         <v>15</v>
@@ -868,7 +871,7 @@
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2">
         <v>45</v>
@@ -880,7 +883,7 @@
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2">
         <v>60</v>
@@ -892,7 +895,7 @@
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2">
         <v>80</v>
@@ -904,7 +907,7 @@
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2">
         <v>50</v>
@@ -916,7 +919,7 @@
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2">
         <v>20</v>
@@ -928,7 +931,7 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
@@ -940,7 +943,7 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2">
         <v>15</v>
@@ -979,13 +982,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1001,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1009,7 +1012,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="D2" s="2">
@@ -1019,15 +1022,15 @@
         <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>55</v>
@@ -1035,10 +1038,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>55</v>
@@ -1046,12 +1049,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>185</v>
       </c>
@@ -1059,155 +1060,171 @@
         <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E7">
-        <v>70</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
+        <v>200</v>
+      </c>
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
       <c r="F8" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="E10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="E11">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>45</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
-        <v>62</v>
+      <c r="F13" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2">
+        <v>75</v>
       </c>
       <c r="E14">
         <v>45</v>
       </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
         <v>50</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>15</v>
       </c>
     </row>
@@ -1227,7 +1244,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
@@ -1243,16 +1260,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2">
@@ -1262,13 +1279,13 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2">
@@ -1278,13 +1295,13 @@
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
@@ -1294,17 +1311,17 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1313,7 +1330,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -1323,13 +1340,13 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
@@ -1339,7 +1356,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
@@ -1362,7 +1379,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1378,15 +1395,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>75</v>
@@ -1397,7 +1414,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
@@ -1408,7 +1425,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>25</v>
@@ -1419,7 +1436,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -1430,7 +1447,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2">
         <v>300</v>
@@ -1452,7 +1469,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2">
         <v>200</v>
@@ -1472,7 +1489,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raikh\Desktop\Aboudi\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47C292-4AAA-494E-BADE-955D3EAFA602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834BB4A2-1821-479F-BE9A-926F964998EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>WAX</t>
   </si>
@@ -243,9 +243,6 @@
     <t xml:space="preserve">This rejuvenating revitalizing facial enhances the complexion for a more youthful look, by delivering anti-aging actions. A natural moisturizing and firming complex of amino acids. Restoring radiance and softness to dehydrated and devitalized skin. </t>
   </si>
   <si>
-    <t>Perle de Caviar Bio Marine Mask Facial</t>
-  </si>
-  <si>
     <t>Pearle de Caviar Caviaressence Facial</t>
   </si>
   <si>
@@ -294,14 +291,32 @@
     <t>A real detox and hydrating booster facial. A mask woven from cellulose and charcoal, deeply cleanses,purifies and detoxifies the skin by removing impurities, toxins and excess sebum while preserving the skin's hydrolipidic film. Best for dehydrated, demanding and sensitive skin.</t>
   </si>
   <si>
-    <t>*NEW* Mona's Brightening Facial</t>
+    <t>Mona's Brightening Facial</t>
+  </si>
+  <si>
+    <t>Perle de Caviar Bio Marine Facial (Face and Neck)</t>
+  </si>
+  <si>
+    <t>A Certified Organic and Vegan facial packed with the most effective ingredients obtained from organic farming and harvested by hand, such as Oleo-extract of honeysuckle,
+Birch Sap, Rasberry Seeds, Hawthorn Flower Water, and Alfalfa extract.
+This revitalizing facial is suitable for all skin types.</t>
+  </si>
+  <si>
+    <t>Detox Energie is an intensive detoxifying energizing treatment that gives the skin a burst of energy, helping it defend itself against environmental stress which can accelerate skin aging.
+Detox Energie is a six step treatment of intense detoxifying, exfoliation, antipollution protection, oxygenation of the skin using Digi-Esthétique Massage rebalancing, and detox using ingredients such as Elderberry, Siberian Ginseng, Peptides, Marshmallow extract, Vitamin C, and Marine complex, leaving the skin energized and radiant!</t>
+  </si>
+  <si>
+    <t>*NEW* Detox Energie</t>
+  </si>
+  <si>
+    <t>*NEW* Organic Certified Radiance Treatment by Sothys Organics®</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -349,6 +364,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -370,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,6 +404,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,10 +1007,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1010,150 +1035,150 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2">
-        <v>105</v>
-      </c>
-      <c r="E2">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>175</v>
+      </c>
+      <c r="E2" s="7">
+        <v>75</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
+        <v>130</v>
+      </c>
+      <c r="E3" s="7">
         <v>55</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2">
+        <v>105</v>
       </c>
       <c r="E4">
         <v>55</v>
       </c>
+      <c r="F4" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>185</v>
+      <c r="A5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>195</v>
+      <c r="A6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
         <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E8">
-        <v>70</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>70</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>79</v>
@@ -1161,75 +1186,108 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E14">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
-        <v>61</v>
+      <c r="F14" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>95</v>
       </c>
       <c r="E15">
         <v>45</v>
       </c>
+      <c r="F15" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2">
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D18" s="2">
         <v>50</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1321,7 +1379,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1469,7 +1527,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2">
         <v>200</v>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raikh\Desktop\Aboudi\TECH\monasmakerie\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raiab\Stuff\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834BB4A2-1821-479F-BE9A-926F964998EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3D68EA-8FB3-41EF-B7C1-EF519E9B7916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,12 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>WAX</t>
   </si>
@@ -82,9 +72,6 @@
   </si>
   <si>
     <t>European Facial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makeup </t>
   </si>
   <si>
     <t>Makeup (15 &amp; Under)</t>
@@ -306,10 +293,39 @@
 Detox Energie is a six step treatment of intense detoxifying, exfoliation, antipollution protection, oxygenation of the skin using Digi-Esthétique Massage rebalancing, and detox using ingredients such as Elderberry, Siberian Ginseng, Peptides, Marshmallow extract, Vitamin C, and Marine complex, leaving the skin energized and radiant!</t>
   </si>
   <si>
-    <t>*NEW* Detox Energie</t>
-  </si>
-  <si>
-    <t>*NEW* Organic Certified Radiance Treatment by Sothys Organics®</t>
+    <t>Halloween Makeup</t>
+  </si>
+  <si>
+    <t>Makeup (including lashes)</t>
+  </si>
+  <si>
+    <t>Detox Energie</t>
+  </si>
+  <si>
+    <t>Organic Certified Radiance Treatment by Sothys Organics®</t>
+  </si>
+  <si>
+    <t>*NEW* Intraceuticals Oxygen Facial</t>
+  </si>
+  <si>
+    <t>Immerse yourself in the Intraceuticals Oxygen Facial, a revolutionary treatment in the professional skin care market which infuses your skin with deeply hydrating, plumping, and brightening ingredients, leaving your skin radiant, refreshed and glowing.&lt;br&gt;&lt;br&gt;
+This treatment offers a crossover which validates relaxation and pampering aspects of the service, delivering dramatic instant results, in no time.&lt;br&gt;&lt;br&gt;
+Depending on your skin type, you may select from one of the following facial options:&lt;br&gt;&lt;br&gt;
+&lt;li&gt;&lt;b&gt;Rejuvenate:&lt;/b&gt; Hydrate - Lift - Tighten&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Opulence:&lt;/b&gt; Illuminate - Brighten - Tighten&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Clarity:&lt;/b&gt; Clear - Refine - Calm&lt;/li&gt;
+&lt;br&gt;
+&lt;h3  id="add-on"&gt;Professional Add-on Serums&lt;/h3&gt;
+&lt;li&gt;&lt;b&gt;Atoxelene “no tox botox”:&lt;/b&gt; Smooth-Hold-Prevent &lt;b&gt;| $75&lt;/b&gt;&lt;/li&gt;
+&lt;h3 id="add-on"&gt;Professional Add-on Boosters&lt;/h3&gt;
+&lt;li&gt;&lt;b&gt;Vitamin A Booster:&lt;/b&gt; &lt;i&gt;Regenerate - Clarify - Refine&lt;/i&gt; &lt;b&gt;| $48&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Vitamin C+3 Booster:&lt;/b&gt; Smooth - Brighten - Strengthen &lt;b&gt;| $54&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Antioxidant Booster:&lt;/b&gt; Detox - Revitalize - Balance &lt;b&gt;| $48&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Collagen Booster:&lt;/b&gt; Restore - Tighten - Volume &lt;b&gt;| $48&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Vitamin B Booster:&lt;/b&gt; Nourish - Smooth &lt;b&gt;| $48&lt;/b&gt;&lt;/li&gt;
+&lt;h3 id="add-on"&gt;Professional Add-on Zoning Masks&lt;/h3&gt;
+&lt;li&gt;&lt;b&gt;Rejuvenate moisture rich eye mask &lt;b&gt;| $10&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Rejuvenate moisture rich lip mask &lt;b&gt;| $10&lt;/b&gt;&lt;/li&gt;</t>
   </si>
 </sst>
 </file>
@@ -628,11 +644,11 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -648,13 +664,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>15</v>
@@ -666,7 +682,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -678,7 +694,7 @@
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>15</v>
@@ -690,7 +706,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>35</v>
@@ -702,7 +718,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -714,7 +730,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -726,7 +742,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -739,7 +755,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -752,7 +768,7 @@
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
@@ -764,7 +780,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -776,7 +792,7 @@
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -788,7 +804,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>15</v>
@@ -800,7 +816,7 @@
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45</v>
@@ -812,7 +828,7 @@
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
@@ -824,7 +840,7 @@
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>25</v>
@@ -836,7 +852,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -848,7 +864,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2">
         <v>95</v>
@@ -860,7 +876,7 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2">
         <v>65</v>
@@ -872,7 +888,7 @@
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2">
         <v>45</v>
@@ -884,7 +900,7 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2">
         <v>15</v>
@@ -896,7 +912,7 @@
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
         <v>45</v>
@@ -908,7 +924,7 @@
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2">
         <v>60</v>
@@ -920,7 +936,7 @@
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2">
         <v>80</v>
@@ -932,7 +948,7 @@
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2">
         <v>50</v>
@@ -944,7 +960,7 @@
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2">
         <v>20</v>
@@ -956,7 +972,7 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
@@ -968,7 +984,7 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2">
         <v>15</v>
@@ -1009,11 +1025,11 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1029,7 +1045,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1037,7 +1053,7 @@
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1048,12 +1064,12 @@
         <v>75</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1064,7 +1080,7 @@
         <v>55</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -1079,15 +1095,15 @@
         <v>55</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1095,7 +1111,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -1117,12 +1133,12 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1133,12 +1149,12 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1149,12 +1165,12 @@
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1165,12 +1181,12 @@
         <v>70</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1181,12 +1197,12 @@
         <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1197,12 +1213,12 @@
         <v>70</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1213,12 +1229,12 @@
         <v>60</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1229,12 +1245,12 @@
         <v>45</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1245,7 +1261,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
@@ -1260,12 +1276,12 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -1296,13 +1312,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
@@ -1318,111 +1334,127 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2">
-        <v>85</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
+        <v>92</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="7">
+        <v>220</v>
+      </c>
+      <c r="E2" s="7">
+        <v>60</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E4">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
-        <v>65</v>
+      <c r="F4" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>45</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>180</v>
       </c>
       <c r="E5">
         <v>55</v>
       </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>200</v>
+        <v>53</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E6">
         <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E7">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>250</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1431,13 +1463,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1453,18 +1485,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -1472,10 +1504,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -1483,7 +1515,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>25</v>
@@ -1494,7 +1526,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -1505,7 +1537,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2">
         <v>300</v>
@@ -1527,13 +1559,24 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2">
         <v>200</v>
       </c>
       <c r="E8">
         <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="2">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1590,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raiab\Stuff\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3D68EA-8FB3-41EF-B7C1-EF519E9B7916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C32007-BCC1-4FB8-B94C-6EFD3D91A6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
   <si>
     <t>WAX</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>95 each</t>
-  </si>
-  <si>
-    <t>150 each</t>
   </si>
   <si>
     <t>Makeup Class</t>
@@ -318,7 +315,7 @@
 &lt;h3  id="add-on"&gt;Professional Add-on Serums&lt;/h3&gt;
 &lt;li&gt;&lt;b&gt;Atoxelene “no tox botox”:&lt;/b&gt; Smooth-Hold-Prevent &lt;b&gt;| $75&lt;/b&gt;&lt;/li&gt;
 &lt;h3 id="add-on"&gt;Professional Add-on Boosters&lt;/h3&gt;
-&lt;li&gt;&lt;b&gt;Vitamin A Booster:&lt;/b&gt; &lt;i&gt;Regenerate - Clarify - Refine&lt;/i&gt; &lt;b&gt;| $48&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Vitamin A Booster:&lt;/b&gt; Regenerate - Clarify - Refine &lt;b&gt;| $48&lt;/b&gt;&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;Vitamin C+3 Booster:&lt;/b&gt; Smooth - Brighten - Strengthen &lt;b&gt;| $54&lt;/b&gt;&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;Antioxidant Booster:&lt;/b&gt; Detox - Revitalize - Balance &lt;b&gt;| $48&lt;/b&gt;&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;Collagen Booster:&lt;/b&gt; Restore - Tighten - Volume &lt;b&gt;| $48&lt;/b&gt;&lt;/li&gt;
@@ -326,6 +323,27 @@
 &lt;h3 id="add-on"&gt;Professional Add-on Zoning Masks&lt;/h3&gt;
 &lt;li&gt;&lt;b&gt;Rejuvenate moisture rich eye mask &lt;b&gt;| $10&lt;/b&gt;&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;Rejuvenate moisture rich lip mask &lt;b&gt;| $10&lt;/b&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strike style="color:red"&gt;&lt;span style="color:initial"&gt;$220&lt;/span&gt;&lt;/strike&gt; &lt;span style="color:red"&gt;$195&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>$150 each</t>
+  </si>
+  <si>
+    <t>$85</t>
+  </si>
+  <si>
+    <t>$170</t>
+  </si>
+  <si>
+    <t>$180</t>
+  </si>
+  <si>
+    <t>$200</t>
+  </si>
+  <si>
+    <t>$250</t>
   </si>
 </sst>
 </file>
@@ -407,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -424,6 +442,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,7 +1075,7 @@
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1064,12 +1086,12 @@
         <v>75</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1080,7 +1102,7 @@
         <v>55</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -1138,7 +1160,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1149,7 +1171,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
@@ -1165,12 +1187,12 @@
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1315,10 +1337,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="14.42578125" style="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
@@ -1330,7 +1355,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1343,17 +1368,17 @@
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="7">
-        <v>220</v>
+      <c r="D2" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="E2" s="7">
         <v>60</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -1362,8 +1387,8 @@
         <v>49</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="2">
-        <v>85</v>
+      <c r="D3" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -1378,8 +1403,8 @@
         <v>48</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="2">
-        <v>170</v>
+      <c r="D4" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="E4">
         <v>55</v>
@@ -1394,8 +1419,8 @@
         <v>45</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>180</v>
+      <c r="D5" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1410,8 +1435,8 @@
         <v>53</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>80</v>
+      <c r="D6" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="E6">
         <v>55</v>
@@ -1423,8 +1448,8 @@
         <v>46</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>200</v>
+      <c r="D7" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="E7">
         <v>55</v>
@@ -1439,8 +1464,8 @@
         <v>54</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>250</v>
+      <c r="D8" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="E8">
         <v>75</v>
@@ -1490,7 +1515,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1559,7 +1584,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2">
         <v>200</v>
@@ -1570,7 +1595,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2">
         <v>150</v>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raiab\Stuff\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C32007-BCC1-4FB8-B94C-6EFD3D91A6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F11A69-C4EE-4187-90F5-B0A367E1CCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,11 +305,31 @@
     <t>*NEW* Intraceuticals Oxygen Facial</t>
   </si>
   <si>
+    <t>$150 each</t>
+  </si>
+  <si>
+    <t>$85</t>
+  </si>
+  <si>
+    <t>$170</t>
+  </si>
+  <si>
+    <t>$180</t>
+  </si>
+  <si>
+    <t>$200</t>
+  </si>
+  <si>
+    <t>$250</t>
+  </si>
+  <si>
+    <t>&lt;strike style="color:red"&gt;&lt;span style="color:initial"&gt;$220&lt;/span&gt;&lt;/strike&gt; &lt;span style="color:red"&gt;$195 &lt;i&gt;until 09/15/2023&lt;/i&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
     <t>Immerse yourself in the Intraceuticals Oxygen Facial, a revolutionary treatment in the professional skin care market which infuses your skin with deeply hydrating, plumping, and brightening ingredients, leaving your skin radiant, refreshed and glowing.&lt;br&gt;&lt;br&gt;
-This treatment offers a crossover which validates relaxation and pampering aspects of the service, delivering dramatic instant results, in no time.&lt;br&gt;&lt;br&gt;
-Depending on your skin type, you may select from one of the following facial options:&lt;br&gt;&lt;br&gt;
+Depending on your skin type, you may select from &lt;i&gt;one&lt;/i&gt; of the following facial options:&lt;br&gt;&lt;br&gt;
 &lt;li&gt;&lt;b&gt;Rejuvenate:&lt;/b&gt; Hydrate - Lift - Tighten&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;Opulence:&lt;/b&gt; Illuminate - Brighten - Tighten&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;Opulence:&lt;/b&gt; Illuminate - Brighten&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;Clarity:&lt;/b&gt; Clear - Refine - Calm&lt;/li&gt;
 &lt;br&gt;
 &lt;h3  id="add-on"&gt;Professional Add-on Serums&lt;/h3&gt;
@@ -323,27 +343,6 @@
 &lt;h3 id="add-on"&gt;Professional Add-on Zoning Masks&lt;/h3&gt;
 &lt;li&gt;&lt;b&gt;Rejuvenate moisture rich eye mask &lt;b&gt;| $10&lt;/b&gt;&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;Rejuvenate moisture rich lip mask &lt;b&gt;| $10&lt;/b&gt;&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;strike style="color:red"&gt;&lt;span style="color:initial"&gt;$220&lt;/span&gt;&lt;/strike&gt; &lt;span style="color:red"&gt;$195&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>$150 each</t>
-  </si>
-  <si>
-    <t>$85</t>
-  </si>
-  <si>
-    <t>$170</t>
-  </si>
-  <si>
-    <t>$180</t>
-  </si>
-  <si>
-    <t>$200</t>
-  </si>
-  <si>
-    <t>$250</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1336,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1372,13 +1371,13 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E2" s="7">
         <v>60</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -1388,7 +1387,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -1404,7 +1403,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>55</v>
@@ -1420,7 +1419,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1436,7 +1435,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>55</v>
@@ -1449,7 +1448,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>55</v>
@@ -1465,7 +1464,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>75</v>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raikh\Desktop\Aboudi\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834BB4A2-1821-479F-BE9A-926F964998EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A532DFFF-D56A-4943-990F-AAAC67CEB6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t xml:space="preserve">Makeup </t>
   </si>
   <si>
-    <t>Makeup (15 &amp; Under)</t>
-  </si>
-  <si>
     <t>including lashes</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>*NEW* Organic Certified Radiance Treatment by Sothys Organics®</t>
+  </si>
+  <si>
+    <t>Makeup (13 &amp; Under)</t>
   </si>
 </sst>
 </file>
@@ -648,13 +648,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>15</v>
@@ -666,7 +666,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -678,7 +678,7 @@
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>15</v>
@@ -690,7 +690,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>35</v>
@@ -702,7 +702,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -714,7 +714,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -726,7 +726,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -739,7 +739,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -752,7 +752,7 @@
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
@@ -764,7 +764,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -776,7 +776,7 @@
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -788,7 +788,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>15</v>
@@ -800,7 +800,7 @@
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45</v>
@@ -812,7 +812,7 @@
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
@@ -824,7 +824,7 @@
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>25</v>
@@ -836,7 +836,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -848,7 +848,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2">
         <v>95</v>
@@ -860,7 +860,7 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2">
         <v>65</v>
@@ -872,7 +872,7 @@
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2">
         <v>45</v>
@@ -884,7 +884,7 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2">
         <v>15</v>
@@ -896,7 +896,7 @@
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
         <v>45</v>
@@ -908,7 +908,7 @@
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2">
         <v>60</v>
@@ -920,7 +920,7 @@
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2">
         <v>80</v>
@@ -932,7 +932,7 @@
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2">
         <v>50</v>
@@ -944,7 +944,7 @@
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2">
         <v>20</v>
@@ -956,7 +956,7 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
@@ -968,7 +968,7 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2">
         <v>15</v>
@@ -1009,7 +1009,7 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1029,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1048,12 +1048,12 @@
         <v>75</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1064,7 +1064,7 @@
         <v>55</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -1079,15 +1079,15 @@
         <v>55</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -1117,12 +1117,12 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1133,12 +1133,12 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1149,12 +1149,12 @@
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1165,12 +1165,12 @@
         <v>70</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1181,12 +1181,12 @@
         <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1197,12 +1197,12 @@
         <v>70</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1213,12 +1213,12 @@
         <v>60</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1229,12 +1229,12 @@
         <v>45</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1245,7 +1245,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
@@ -1260,12 +1260,12 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -1318,16 +1318,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2">
@@ -1337,13 +1337,13 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2">
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
@@ -1369,17 +1369,17 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1388,7 +1388,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -1398,13 +1398,13 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
@@ -1414,7 +1414,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
@@ -1433,8 +1433,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -1461,7 +1461,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>75</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>25</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2">
         <v>300</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2">
         <v>200</v>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raikh\Desktop\Aboudi\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A532DFFF-D56A-4943-990F-AAAC67CEB6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834BB4A2-1821-479F-BE9A-926F964998EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,6 +87,9 @@
     <t xml:space="preserve">Makeup </t>
   </si>
   <si>
+    <t>Makeup (15 &amp; Under)</t>
+  </si>
+  <si>
     <t>including lashes</t>
   </si>
   <si>
@@ -307,9 +310,6 @@
   </si>
   <si>
     <t>*NEW* Organic Certified Radiance Treatment by Sothys Organics®</t>
-  </si>
-  <si>
-    <t>Makeup (13 &amp; Under)</t>
   </si>
 </sst>
 </file>
@@ -648,13 +648,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>15</v>
@@ -666,7 +666,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -678,7 +678,7 @@
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>15</v>
@@ -690,7 +690,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>35</v>
@@ -702,7 +702,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -714,7 +714,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -726,7 +726,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -739,7 +739,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -752,7 +752,7 @@
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
@@ -764,7 +764,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -776,7 +776,7 @@
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -788,7 +788,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>15</v>
@@ -800,7 +800,7 @@
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45</v>
@@ -812,7 +812,7 @@
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
@@ -824,7 +824,7 @@
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>25</v>
@@ -836,7 +836,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -848,7 +848,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2">
         <v>95</v>
@@ -860,7 +860,7 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2">
         <v>65</v>
@@ -872,7 +872,7 @@
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2">
         <v>45</v>
@@ -884,7 +884,7 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2">
         <v>15</v>
@@ -896,7 +896,7 @@
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2">
         <v>45</v>
@@ -908,7 +908,7 @@
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2">
         <v>60</v>
@@ -920,7 +920,7 @@
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2">
         <v>80</v>
@@ -932,7 +932,7 @@
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2">
         <v>50</v>
@@ -944,7 +944,7 @@
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2">
         <v>20</v>
@@ -956,7 +956,7 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
@@ -968,7 +968,7 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2">
         <v>15</v>
@@ -1009,7 +1009,7 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1029,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1048,12 +1048,12 @@
         <v>75</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1064,7 +1064,7 @@
         <v>55</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -1079,15 +1079,15 @@
         <v>55</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -1117,12 +1117,12 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1133,12 +1133,12 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1149,12 +1149,12 @@
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1165,12 +1165,12 @@
         <v>70</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1181,12 +1181,12 @@
         <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1197,12 +1197,12 @@
         <v>70</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1213,12 +1213,12 @@
         <v>60</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1229,12 +1229,12 @@
         <v>45</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1245,7 +1245,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
@@ -1260,12 +1260,12 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -1318,16 +1318,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2">
@@ -1337,13 +1337,13 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2">
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
@@ -1369,17 +1369,17 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1388,7 +1388,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -1398,13 +1398,13 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
@@ -1414,7 +1414,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
@@ -1433,8 +1433,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -1461,7 +1461,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>75</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>25</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2">
         <v>300</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2">
         <v>200</v>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raiab\Stuff\TECH\monasmakerie\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raikh\Desktop\Aboudi\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F11A69-C4EE-4187-90F5-B0A367E1CCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD888D-EE17-48CC-B104-32A7CFC227CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>European Facial</t>
-  </si>
-  <si>
-    <t>Makeup (15 &amp; Under)</t>
   </si>
   <si>
     <t>including lashes</t>
@@ -343,6 +340,9 @@
 &lt;h3 id="add-on"&gt;Professional Add-on Zoning Masks&lt;/h3&gt;
 &lt;li&gt;&lt;b&gt;Rejuvenate moisture rich eye mask &lt;b&gt;| $10&lt;/b&gt;&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;Rejuvenate moisture rich lip mask &lt;b&gt;| $10&lt;/b&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>Makeup (13 &amp; Under)</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -685,13 +685,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>15</v>
@@ -703,7 +703,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -715,7 +715,7 @@
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>15</v>
@@ -727,7 +727,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>35</v>
@@ -739,7 +739,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -751,7 +751,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
@@ -763,7 +763,7 @@
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -776,7 +776,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -789,7 +789,7 @@
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>15</v>
@@ -801,7 +801,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -813,7 +813,7 @@
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -825,7 +825,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>15</v>
@@ -837,7 +837,7 @@
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45</v>
@@ -849,7 +849,7 @@
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>25</v>
@@ -861,7 +861,7 @@
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>25</v>
@@ -873,7 +873,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -885,7 +885,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>95</v>
@@ -897,7 +897,7 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>65</v>
@@ -909,7 +909,7 @@
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2">
         <v>45</v>
@@ -921,7 +921,7 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
         <v>15</v>
@@ -933,7 +933,7 @@
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2">
         <v>45</v>
@@ -945,7 +945,7 @@
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2">
         <v>60</v>
@@ -957,7 +957,7 @@
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2">
         <v>80</v>
@@ -969,7 +969,7 @@
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2">
         <v>50</v>
@@ -981,7 +981,7 @@
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2">
         <v>20</v>
@@ -993,7 +993,7 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
@@ -1005,7 +1005,7 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2">
         <v>15</v>
@@ -1050,7 +1050,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1085,12 +1085,12 @@
         <v>75</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1101,7 +1101,7 @@
         <v>55</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -1116,15 +1116,15 @@
         <v>55</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>55</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -1154,12 +1154,12 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1170,12 +1170,12 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1186,12 +1186,12 @@
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1202,12 +1202,12 @@
         <v>70</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1218,12 +1218,12 @@
         <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1234,12 +1234,12 @@
         <v>70</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1250,12 +1250,12 @@
         <v>60</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1266,12 +1266,12 @@
         <v>45</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1282,7 +1282,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
@@ -1297,12 +1297,12 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -1335,13 +1335,13 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="14.42578125" style="15"/>
+    <col min="4" max="4" width="14.44140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -1358,84 +1358,84 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="7">
         <v>60</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>55</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>55</v>
@@ -1444,33 +1444,33 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
@@ -1489,11 +1489,11 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1509,15 +1509,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2">
         <v>60</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>25</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2">
         <v>300</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2">
         <v>200</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2">
         <v>150</v>
@@ -1614,7 +1614,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raikh\Desktop\Aboudi\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD888D-EE17-48CC-B104-32A7CFC227CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062F5512-5FC9-44A6-B86E-800883F175ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -318,9 +318,6 @@
   </si>
   <si>
     <t>$250</t>
-  </si>
-  <si>
-    <t>&lt;strike style="color:red"&gt;&lt;span style="color:initial"&gt;$220&lt;/span&gt;&lt;/strike&gt; &lt;span style="color:red"&gt;$195 &lt;i&gt;until 09/15/2023&lt;/i&gt;&lt;/span&gt;</t>
   </si>
   <si>
     <t>Immerse yourself in the Intraceuticals Oxygen Facial, a revolutionary treatment in the professional skin care market which infuses your skin with deeply hydrating, plumping, and brightening ingredients, leaving your skin radiant, refreshed and glowing.&lt;br&gt;&lt;br&gt;
@@ -342,7 +339,10 @@
 &lt;li&gt;&lt;b&gt;Rejuvenate moisture rich lip mask &lt;b&gt;| $10&lt;/b&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>Makeup (13 &amp; Under)</t>
+    <t>Makeup (12 &amp; Under)</t>
+  </si>
+  <si>
+    <t>$220</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1371,13 +1371,13 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" s="7">
         <v>60</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -1489,8 +1489,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2">
         <v>60</v>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raikh\Desktop\Aboudi\TECH\monasmakerie\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raiab\Stuff\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062F5512-5FC9-44A6-B86E-800883F175ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CB5DAF-0D43-4ABB-B5C8-97599FD7F7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>WAX</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>$220</t>
+  </si>
+  <si>
+    <t>Makeup Class (2 people)</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1050,7 +1053,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1335,13 +1338,13 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="14.44140625" style="15"/>
+    <col min="4" max="4" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -1487,13 +1490,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1594,12 +1597,23 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>150</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>60</v>
       </c>
     </row>
@@ -1614,7 +1628,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spreadsheets/pricing.xlsx
+++ b/spreadsheets/pricing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raiab\Stuff\TECH\monasmakerie\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raiab\STUFF\TECH\monasmakerie\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CB5DAF-0D43-4ABB-B5C8-97599FD7F7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794CDA65-C88D-4753-8986-01D418951324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,13 +339,13 @@
 &lt;li&gt;&lt;b&gt;Rejuvenate moisture rich lip mask &lt;b&gt;| $10&lt;/b&gt;&lt;/li&gt;</t>
   </si>
   <si>
-    <t>Makeup (12 &amp; Under)</t>
-  </si>
-  <si>
     <t>$220</t>
   </si>
   <si>
     <t>Makeup Class (2 people)</t>
+  </si>
+  <si>
+    <t>Makeup (10 &amp; Under)</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="7">
         <v>60</v>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <v>60</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2">
         <v>300</v>
